--- a/data/trans_orig/P16A17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E5CF418-7B11-4D52-8C8D-FF818847B3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D238C36E-F9BD-4AF4-B813-02F055E56C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{54B1C2A7-71AD-4970-BE5B-4B568D4A1403}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{455A7416-F298-49D0-89D6-EB256CF62CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -80,10 +80,10 @@
     <t>2,27%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>97,73%</t>
   </si>
   <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -110,13 +110,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,15%</t>
+    <t>1,17%</t>
   </si>
   <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,85%</t>
+    <t>98,83%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -128,277 +128,283 @@
     <t>0,22%</t>
   </si>
   <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2015 (Tasa respuesta: 50,81%)</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>99,78%</t>
+    <t>99,49%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2015 (Tasa respuesta: 50,81%)</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
     <t>99,69%</t>
   </si>
   <si>
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2023 (Tasa respuesta: 61,24%)</t>
   </si>
   <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
   </si>
   <si>
     <t>0,13%</t>
   </si>
   <si>
-    <t>99,64%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>99,87%</t>
@@ -407,19 +413,13 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>0,93%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
+    <t>99,07%</t>
   </si>
   <si>
     <t>1,19%</t>
@@ -434,13 +434,13 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>0,67%</t>
+    <t>0,66%</t>
   </si>
   <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>99,33%</t>
+    <t>99,34%</t>
   </si>
   <si>
     <t>99,7%</t>
@@ -855,7 +855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55C1598-10E2-4F90-93FB-7CE3BFC8DBA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E481681-ACCE-4510-8C8C-F9C1B44254A5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1882,7 +1882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC21B02-3264-4CFF-94A2-2687CFEF96D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFC3C64-D41B-451A-B964-4DE78E55591A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2320,10 +2320,10 @@
         <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2335,10 +2335,10 @@
         <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,13 +2366,13 @@
         <v>1021014</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
         <v>930</v>
@@ -2381,13 +2381,13 @@
         <v>1021014</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,13 +2466,13 @@
         <v>5892</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2481,13 +2481,13 @@
         <v>5892</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,13 +2515,13 @@
         <v>768398</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>698</v>
@@ -2530,13 +2530,13 @@
         <v>768398</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,13 +2615,13 @@
         <v>7046</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2630,13 +2630,13 @@
         <v>7046</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2664,13 @@
         <v>1036545</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>988</v>
@@ -2679,13 +2679,13 @@
         <v>1036545</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,13 +2764,13 @@
         <v>21690</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -2779,13 +2779,13 @@
         <v>21690</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,7 +2813,7 @@
         <v>3514246</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>83</v>
@@ -2828,7 +2828,7 @@
         <v>3514246</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>83</v>
@@ -2909,7 +2909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E4C0C2-12FD-4AD5-BBDA-53493E1E7B1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AA08E1-115C-4055-9D92-4D95BDECBEB4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3797,7 +3797,7 @@
         <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -3812,7 +3812,7 @@
         <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3840,13 @@
         <v>3526454</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>3321</v>
@@ -3855,13 +3855,13 @@
         <v>3526454</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,7 +3936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BF2B70-C3B8-4A04-951A-B0646A4E77F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CD6425-1AD5-4B06-89C5-28332AA13432}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3953,7 +3953,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4079,7 +4079,7 @@
         <v>54</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>54</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,7 +4125,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4140,7 +4140,7 @@
         <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4225,10 +4225,10 @@
         <v>90</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4240,10 +4240,10 @@
         <v>90</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,10 +4274,10 @@
         <v>91</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>993</v>
@@ -4289,10 +4289,10 @@
         <v>91</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4371,13 @@
         <v>3857</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4386,13 +4386,13 @@
         <v>3857</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4420,13 @@
         <v>1053758</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M11" s="7">
         <v>1507</v>
@@ -4435,13 +4435,13 @@
         <v>1053758</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4520,13 @@
         <v>3197</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -4535,13 +4535,13 @@
         <v>3197</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4569,13 @@
         <v>869745</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M14" s="7">
         <v>1039</v>
@@ -4584,13 +4584,13 @@
         <v>869745</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,7 +4672,7 @@
         <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>127</v>
@@ -4687,7 +4687,7 @@
         <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>127</v>
@@ -4724,7 +4724,7 @@
         <v>128</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="M17" s="7">
         <v>1545</v>
@@ -4739,7 +4739,7 @@
         <v>128</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D238C36E-F9BD-4AF4-B813-02F055E56C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95BEA489-9CC3-498D-859C-EC33CE78F532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{455A7416-F298-49D0-89D6-EB256CF62CC9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{19464762-B61C-46A1-84D7-654F457213A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="133">
   <si>
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -80,10 +80,10 @@
     <t>2,27%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,16 +92,16 @@
     <t>97,73%</t>
   </si>
   <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,34%</t>
@@ -110,315 +110,315 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>99,66%</t>
-  </si>
-  <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2023 (Tasa respuesta: 61,24%)</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2015 (Tasa respuesta: 50,81%)</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2023 (Tasa respuesta: 61,24%)</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
     <t>99,18%</t>
   </si>
   <si>
     <t>99,87%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
     <t>99,07%</t>
   </si>
   <si>
@@ -431,9 +431,6 @@
     <t>0,45%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
     <t>0,66%</t>
   </si>
   <si>
@@ -441,9 +438,6 @@
   </si>
   <si>
     <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
   </si>
 </sst>
 </file>
@@ -855,7 +849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E481681-ACCE-4510-8C8C-F9C1B44254A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C295D284-E7AC-4665-A82E-F4367D47B04E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1882,7 +1876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFC3C64-D41B-451A-B964-4DE78E55591A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE8B071-601E-4BD3-8A2F-75E031417591}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2320,10 +2314,10 @@
         <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2335,10 +2329,10 @@
         <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,13 +2360,13 @@
         <v>1021014</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>930</v>
@@ -2381,13 +2375,13 @@
         <v>1021014</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,13 +2460,13 @@
         <v>5892</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2481,13 +2475,13 @@
         <v>5892</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,13 +2509,13 @@
         <v>768398</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>698</v>
@@ -2530,13 +2524,13 @@
         <v>768398</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,13 +2609,13 @@
         <v>7046</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2630,13 +2624,13 @@
         <v>7046</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2658,13 @@
         <v>1036545</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>988</v>
@@ -2679,13 +2673,13 @@
         <v>1036545</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,13 +2758,13 @@
         <v>21690</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -2779,13 +2773,13 @@
         <v>21690</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2807,13 @@
         <v>3514246</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M20" s="7">
         <v>3258</v>
@@ -2828,13 +2822,13 @@
         <v>3514246</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,7 +2903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AA08E1-115C-4055-9D92-4D95BDECBEB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5481AA70-3323-4F9B-A5FE-DC37C7BC1626}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2926,7 +2920,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3046,13 +3040,13 @@
         <v>941</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3061,13 +3055,13 @@
         <v>941</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,10 +3089,10 @@
         <v>112419</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3110,10 +3104,10 @@
         <v>112419</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -3201,7 +3195,7 @@
         <v>54</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3216,7 +3210,7 @@
         <v>54</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,7 +3241,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3262,7 +3256,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3344,13 +3338,13 @@
         <v>6290</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3359,13 +3353,13 @@
         <v>6290</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,13 +3387,13 @@
         <v>1036623</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
         <v>971</v>
@@ -3408,13 +3402,13 @@
         <v>1036623</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,7 +3930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CD6425-1AD5-4B06-89C5-28332AA13432}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DFD707-AA22-4942-9C5B-2DF2989AA541}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4079,7 +4073,7 @@
         <v>54</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4094,7 +4088,7 @@
         <v>54</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,7 +4119,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4140,7 +4134,7 @@
         <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4222,7 +4216,7 @@
         <v>2075</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>115</v>
@@ -4237,7 +4231,7 @@
         <v>2075</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>115</v>
@@ -4271,7 +4265,7 @@
         <v>590887</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>117</v>
@@ -4286,7 +4280,7 @@
         <v>590887</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>117</v>
@@ -4371,13 +4365,13 @@
         <v>3857</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4386,13 +4380,13 @@
         <v>3857</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4414,13 @@
         <v>1053758</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M11" s="7">
         <v>1507</v>
@@ -4435,13 +4429,13 @@
         <v>1053758</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4514,13 @@
         <v>3197</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -4535,13 +4529,13 @@
         <v>3197</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4563,13 @@
         <v>869745</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>126</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M14" s="7">
         <v>1039</v>
@@ -4584,13 +4578,13 @@
         <v>869745</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>126</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,7 +4666,7 @@
         <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>127</v>
@@ -4687,7 +4681,7 @@
         <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>127</v>
@@ -4724,7 +4718,7 @@
         <v>128</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>1545</v>
@@ -4739,7 +4733,7 @@
         <v>128</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,10 +4815,10 @@
         <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -4836,10 +4830,10 @@
         <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4861,13 @@
         <v>3782733</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>5327</v>
@@ -4882,13 +4876,13 @@
         <v>3782733</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95BEA489-9CC3-498D-859C-EC33CE78F532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{396E1772-8EF9-4682-A7F6-1BDD0BC7ABAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{19464762-B61C-46A1-84D7-654F457213A7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{490FBB97-69DF-4074-A3EF-80ADE661ACC2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="135">
   <si>
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -83,7 +83,7 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>6,1%</t>
+    <t>6,05%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,7 +92,7 @@
     <t>97,73%</t>
   </si>
   <si>
-    <t>93,9%</t>
+    <t>93,95%</t>
   </si>
   <si>
     <t>99,26%</t>
@@ -110,13 +110,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,18%</t>
+    <t>1,15%</t>
   </si>
   <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,82%</t>
+    <t>98,85%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -143,301 +143,307 @@
     <t>1,29%</t>
   </si>
   <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2023 (Tasa respuesta: 61,24%)</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
+    <t>99,55%</t>
   </si>
   <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
     <t>99,7%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2023 (Tasa respuesta: 61,24%)</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
   </si>
 </sst>
 </file>
@@ -849,7 +855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C295D284-E7AC-4665-A82E-F4367D47B04E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6514C683-472E-4A51-A1A5-9BBA66D20380}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1876,7 +1882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE8B071-601E-4BD3-8A2F-75E031417591}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25F5280-A73F-4433-B631-2813B8FC2957}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2758,13 +2764,13 @@
         <v>21690</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -2773,13 +2779,13 @@
         <v>21690</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,13 +2813,13 @@
         <v>3514246</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M20" s="7">
         <v>3258</v>
@@ -2822,13 +2828,13 @@
         <v>3514246</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,7 +2909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5481AA70-3323-4F9B-A5FE-DC37C7BC1626}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AA0024-2DA7-41DE-ABB0-9E736989D9C2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2920,7 +2926,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3040,13 +3046,13 @@
         <v>941</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3055,13 +3061,13 @@
         <v>941</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,10 +3095,10 @@
         <v>112419</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3104,10 +3110,10 @@
         <v>112419</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -3195,7 +3201,7 @@
         <v>54</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3210,7 +3216,7 @@
         <v>54</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,7 +3247,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3256,7 +3262,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3338,13 +3344,13 @@
         <v>6290</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3353,13 +3359,13 @@
         <v>6290</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,13 +3393,13 @@
         <v>1036623</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="M11" s="7">
         <v>971</v>
@@ -3402,13 +3408,13 @@
         <v>1036623</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,7 +3797,7 @@
         <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -3806,7 +3812,7 @@
         <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3840,13 @@
         <v>3526454</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>3321</v>
@@ -3849,13 +3855,13 @@
         <v>3526454</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,7 +3936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DFD707-AA22-4942-9C5B-2DF2989AA541}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF533D2-801C-47A0-9290-4E976DAA3F1E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3947,7 +3953,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4216,13 +4222,13 @@
         <v>2075</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4231,13 +4237,13 @@
         <v>2075</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4271,13 @@
         <v>590887</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M8" s="7">
         <v>993</v>
@@ -4280,13 +4286,13 @@
         <v>590887</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4371,13 @@
         <v>3857</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4380,13 +4386,13 @@
         <v>3857</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4420,13 @@
         <v>1053758</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M11" s="7">
         <v>1507</v>
@@ -4429,13 +4435,13 @@
         <v>1053758</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,13 +4520,13 @@
         <v>3197</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -4529,13 +4535,13 @@
         <v>3197</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4569,13 @@
         <v>869745</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M14" s="7">
         <v>1039</v>
@@ -4578,13 +4584,13 @@
         <v>869745</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,7 +4672,7 @@
         <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>127</v>
@@ -4681,7 +4687,7 @@
         <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>127</v>
@@ -4718,7 +4724,7 @@
         <v>128</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>1545</v>
@@ -4733,7 +4739,7 @@
         <v>128</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,10 +4821,10 @@
         <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -4830,10 +4836,10 @@
         <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4867,13 @@
         <v>3782733</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>5327</v>
@@ -4876,13 +4882,13 @@
         <v>3782733</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{396E1772-8EF9-4682-A7F6-1BDD0BC7ABAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7479720B-242F-468D-9D32-1D9564DA86D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{490FBB97-69DF-4074-A3EF-80ADE661ACC2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8D5A2799-DA81-4CB7-8623-6325CDA6D6AF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="121">
   <si>
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,67 +77,52 @@
     <t>—%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,22%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>1,29%</t>
@@ -203,247 +188,220 @@
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
   </si>
   <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2023 (Tasa respuesta: 61,24%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>4,2%</t>
+    <t>99,72%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2023 (Tasa respuesta: 61,24%)</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
     <t>99,93%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
   </si>
 </sst>
 </file>
@@ -855,8 +813,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6514C683-472E-4A51-A1A5-9BBA66D20380}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F8AB3C-DBDB-47A2-8B44-6612514F72E6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -986,10 +944,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>2565</v>
+        <v>4510</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -1001,10 +959,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>2565</v>
+        <v>4510</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -1035,10 +993,10 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>125</v>
+        <v>690</v>
       </c>
       <c r="I5" s="7">
-        <v>110190</v>
+        <v>683841</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -1050,10 +1008,10 @@
         <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>125</v>
+        <v>690</v>
       </c>
       <c r="N5" s="7">
-        <v>110190</v>
+        <v>683841</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1084,10 +1042,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>695</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1099,10 +1057,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>128</v>
+        <v>695</v>
       </c>
       <c r="N6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1138,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1945</v>
+        <v>2091</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>21</v>
@@ -1153,7 +1111,7 @@
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>1945</v>
+        <v>2091</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>21</v>
@@ -1184,10 +1142,10 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>565</v>
+        <v>904</v>
       </c>
       <c r="I8" s="7">
-        <v>573651</v>
+        <v>964444</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>24</v>
@@ -1199,10 +1157,10 @@
         <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>565</v>
+        <v>904</v>
       </c>
       <c r="N8" s="7">
-        <v>573651</v>
+        <v>964444</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>24</v>
@@ -1233,10 +1191,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>567</v>
+        <v>906</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>966535</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1248,10 +1206,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>567</v>
+        <v>906</v>
       </c>
       <c r="N9" s="7">
-        <v>575596</v>
+        <v>966535</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1284,34 +1242,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>2091</v>
+        <v>8814</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>2091</v>
+        <v>8814</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1333,34 +1291,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>904</v>
+        <v>687</v>
       </c>
       <c r="I11" s="7">
-        <v>964444</v>
+        <v>675027</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="7">
+        <v>687</v>
+      </c>
+      <c r="N11" s="7">
+        <v>675027</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="7">
-        <v>904</v>
-      </c>
-      <c r="N11" s="7">
-        <v>964444</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1382,10 +1340,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>906</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>966535</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1397,10 +1355,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>906</v>
+        <v>696</v>
       </c>
       <c r="N12" s="7">
-        <v>966535</v>
+        <v>683841</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1414,7 +1372,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1433,34 +1391,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>8814</v>
+        <v>8674</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="7">
+        <v>8</v>
+      </c>
+      <c r="N13" s="7">
+        <v>8674</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="7">
-        <v>9</v>
-      </c>
-      <c r="N13" s="7">
-        <v>8814</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1482,34 +1440,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>687</v>
+        <v>989</v>
       </c>
       <c r="I14" s="7">
-        <v>675027</v>
+        <v>1029938</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="7">
+        <v>989</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1029938</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M14" s="7">
-        <v>687</v>
-      </c>
-      <c r="N14" s="7">
-        <v>675027</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1531,10 +1489,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1546,10 +1504,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="N15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1563,7 +1521,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1582,34 +1540,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I16" s="7">
-        <v>8674</v>
+        <v>24088</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="7">
+        <v>24</v>
+      </c>
+      <c r="N16" s="7">
+        <v>24088</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="7">
-        <v>8</v>
-      </c>
-      <c r="N16" s="7">
-        <v>8674</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1631,34 +1589,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>989</v>
+        <v>3270</v>
       </c>
       <c r="I17" s="7">
-        <v>1029938</v>
+        <v>3353251</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="7">
+        <v>3270</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3353251</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="7">
-        <v>989</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1029938</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1680,10 +1638,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3294</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3377339</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1695,10 +1653,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>997</v>
+        <v>3294</v>
       </c>
       <c r="N18" s="7">
-        <v>1038612</v>
+        <v>3377339</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1711,165 +1669,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>24</v>
-      </c>
-      <c r="I19" s="7">
-        <v>24088</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M19" s="7">
-        <v>24</v>
-      </c>
-      <c r="N19" s="7">
-        <v>24088</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3270</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3353252</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3270</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3353252</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3294</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3377340</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3294</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3377340</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1882,8 +1690,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25F5280-A73F-4433-B631-2813B8FC2957}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E58111C-E617-4C2B-994C-444958F27D90}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1899,7 +1707,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2013,34 +1821,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>3024</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>3024</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,34 +1870,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>99</v>
+        <v>642</v>
       </c>
       <c r="I5" s="7">
-        <v>111905</v>
+        <v>688289</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="M5" s="7">
-        <v>99</v>
+        <v>642</v>
       </c>
       <c r="N5" s="7">
-        <v>111905</v>
+        <v>688289</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,10 +1919,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>645</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>691313</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2126,10 +1934,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>99</v>
+        <v>645</v>
       </c>
       <c r="N6" s="7">
-        <v>111905</v>
+        <v>691313</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2162,34 +1970,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>3024</v>
+        <v>5727</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>3024</v>
+        <v>5727</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2211,34 +2019,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>543</v>
+        <v>930</v>
       </c>
       <c r="I8" s="7">
-        <v>576384</v>
+        <v>1021014</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="M8" s="7">
-        <v>543</v>
+        <v>930</v>
       </c>
       <c r="N8" s="7">
-        <v>576384</v>
+        <v>1021014</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2260,10 +2068,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>546</v>
+        <v>935</v>
       </c>
       <c r="I9" s="7">
-        <v>579408</v>
+        <v>1026741</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2275,10 +2083,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>546</v>
+        <v>935</v>
       </c>
       <c r="N9" s="7">
-        <v>579408</v>
+        <v>1026741</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2311,34 +2119,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>5727</v>
+        <v>5892</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>5727</v>
+        <v>5892</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,34 +2168,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>930</v>
+        <v>698</v>
       </c>
       <c r="I11" s="7">
-        <v>1021014</v>
+        <v>768398</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="M11" s="7">
-        <v>930</v>
+        <v>698</v>
       </c>
       <c r="N11" s="7">
-        <v>1021014</v>
+        <v>768398</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2409,10 +2217,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>935</v>
+        <v>702</v>
       </c>
       <c r="I12" s="7">
-        <v>1026741</v>
+        <v>774290</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2424,10 +2232,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>935</v>
+        <v>702</v>
       </c>
       <c r="N12" s="7">
-        <v>1026741</v>
+        <v>774290</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2441,7 +2249,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2460,34 +2268,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>5892</v>
+        <v>7046</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>5892</v>
+        <v>7046</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,34 +2317,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>698</v>
+        <v>988</v>
       </c>
       <c r="I14" s="7">
-        <v>768398</v>
+        <v>1036545</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
-        <v>698</v>
+        <v>988</v>
       </c>
       <c r="N14" s="7">
-        <v>768398</v>
+        <v>1036545</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,10 +2366,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>702</v>
+        <v>995</v>
       </c>
       <c r="I15" s="7">
-        <v>774290</v>
+        <v>1043591</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2573,10 +2381,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>702</v>
+        <v>995</v>
       </c>
       <c r="N15" s="7">
-        <v>774290</v>
+        <v>1043591</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2590,7 +2398,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2609,34 +2417,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I16" s="7">
-        <v>7046</v>
+        <v>21690</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N16" s="7">
-        <v>7046</v>
+        <v>21690</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,34 +2466,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>988</v>
+        <v>3258</v>
       </c>
       <c r="I17" s="7">
-        <v>1036545</v>
+        <v>3514246</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7">
-        <v>988</v>
+        <v>3258</v>
       </c>
       <c r="N17" s="7">
-        <v>1036545</v>
+        <v>3514246</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,10 +2515,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>995</v>
+        <v>3277</v>
       </c>
       <c r="I18" s="7">
-        <v>1043591</v>
+        <v>3535936</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2722,10 +2530,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>995</v>
+        <v>3277</v>
       </c>
       <c r="N18" s="7">
-        <v>1043591</v>
+        <v>3535936</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2738,165 +2546,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>19</v>
-      </c>
-      <c r="I19" s="7">
-        <v>21690</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M19" s="7">
-        <v>19</v>
-      </c>
-      <c r="N19" s="7">
-        <v>21690</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3258</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3514246</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3258</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3514246</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3277</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3535936</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3277</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3535936</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>52</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2909,8 +2567,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AA0024-2DA7-41DE-ABB0-9E736989D9C2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E690522-CBD9-44C5-A974-2CD2A1478808}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2926,7 +2584,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3046,13 +2704,13 @@
         <v>941</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3061,13 +2719,13 @@
         <v>941</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,31 +2747,31 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>114</v>
+        <v>665</v>
       </c>
       <c r="I5" s="7">
-        <v>112419</v>
+        <v>671898</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>114</v>
+        <v>665</v>
       </c>
       <c r="N5" s="7">
-        <v>112419</v>
+        <v>671898</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -3138,10 +2796,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3153,10 +2811,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="N6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3189,34 +2847,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>6290</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>6290</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,34 +2896,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>551</v>
+        <v>971</v>
       </c>
       <c r="I8" s="7">
-        <v>559479</v>
+        <v>1036623</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="M8" s="7">
-        <v>551</v>
+        <v>971</v>
       </c>
       <c r="N8" s="7">
-        <v>559479</v>
+        <v>1036623</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,10 +2945,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3302,10 +2960,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="N9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3338,34 +2996,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>6290</v>
+        <v>5405</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>6290</v>
+        <v>5405</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,34 +3045,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>971</v>
+        <v>731</v>
       </c>
       <c r="I11" s="7">
-        <v>1036623</v>
+        <v>779606</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M11" s="7">
-        <v>971</v>
+        <v>731</v>
       </c>
       <c r="N11" s="7">
-        <v>1036623</v>
+        <v>779606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,10 +3094,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3451,10 +3109,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="N12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3468,7 +3126,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3490,31 +3148,31 @@
         <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>5405</v>
+        <v>5452</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>5405</v>
+        <v>5452</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,34 +3194,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>731</v>
+        <v>954</v>
       </c>
       <c r="I14" s="7">
-        <v>779606</v>
+        <v>1038327</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
-        <v>731</v>
+        <v>954</v>
       </c>
       <c r="N14" s="7">
-        <v>779606</v>
+        <v>1038327</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,10 +3243,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3600,10 +3258,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="N15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3617,7 +3275,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3636,34 +3294,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>5452</v>
+        <v>18088</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N16" s="7">
-        <v>5452</v>
+        <v>18088</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,34 +3343,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>954</v>
+        <v>3321</v>
       </c>
       <c r="I17" s="7">
-        <v>1038327</v>
+        <v>3526454</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
-        <v>954</v>
+        <v>3321</v>
       </c>
       <c r="N17" s="7">
-        <v>1038327</v>
+        <v>3526454</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,10 +3392,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3749,10 +3407,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="N18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3765,165 +3423,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>17</v>
-      </c>
-      <c r="I19" s="7">
-        <v>18088</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" s="7">
-        <v>17</v>
-      </c>
-      <c r="N19" s="7">
-        <v>18088</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3321</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3526454</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3321</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3526454</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>52</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3936,8 +3444,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF533D2-801C-47A0-9290-4E976DAA3F1E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60516A2-810B-487E-8681-F7BF160017C0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3953,7 +3461,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4067,34 +3575,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1863</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1863</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,34 +3624,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>243</v>
+        <v>1236</v>
       </c>
       <c r="I5" s="7">
-        <v>130733</v>
+        <v>673889</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="M5" s="7">
-        <v>243</v>
+        <v>1236</v>
       </c>
       <c r="N5" s="7">
-        <v>130733</v>
+        <v>673889</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,10 +3673,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1239</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675752</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4180,10 +3688,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>243</v>
+        <v>1239</v>
       </c>
       <c r="N6" s="7">
-        <v>130733</v>
+        <v>675752</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4216,34 +3724,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>2075</v>
+        <v>3618</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>2075</v>
+        <v>3618</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,34 +3773,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>993</v>
+        <v>1507</v>
       </c>
       <c r="I8" s="7">
-        <v>590887</v>
+        <v>952730</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="M8" s="7">
-        <v>993</v>
+        <v>1507</v>
       </c>
       <c r="N8" s="7">
-        <v>590887</v>
+        <v>952730</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,10 +3822,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1513</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>956348</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4329,10 +3837,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>996</v>
+        <v>1513</v>
       </c>
       <c r="N9" s="7">
-        <v>592962</v>
+        <v>956348</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4368,31 +3876,31 @@
         <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>3857</v>
+        <v>2945</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>3857</v>
+        <v>2945</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,34 +3922,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1507</v>
+        <v>1039</v>
       </c>
       <c r="I11" s="7">
-        <v>1053758</v>
+        <v>929117</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M11" s="7">
-        <v>1507</v>
+        <v>1039</v>
       </c>
       <c r="N11" s="7">
-        <v>1053758</v>
+        <v>929117</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,10 +3971,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>1513</v>
+        <v>1045</v>
       </c>
       <c r="I12" s="7">
-        <v>1057615</v>
+        <v>932062</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4478,10 +3986,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1513</v>
+        <v>1045</v>
       </c>
       <c r="N12" s="7">
-        <v>1057615</v>
+        <v>932062</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4495,7 +4003,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4514,34 +4022,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>3197</v>
+        <v>7024</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>3197</v>
+        <v>7024</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,34 +4071,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>1039</v>
+        <v>1545</v>
       </c>
       <c r="I14" s="7">
-        <v>869745</v>
+        <v>1083559</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="M14" s="7">
-        <v>1039</v>
+        <v>1545</v>
       </c>
       <c r="N14" s="7">
-        <v>869745</v>
+        <v>1083559</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,10 +4120,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>1045</v>
+        <v>1557</v>
       </c>
       <c r="I15" s="7">
-        <v>872942</v>
+        <v>1090583</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4627,10 +4135,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>1045</v>
+        <v>1557</v>
       </c>
       <c r="N15" s="7">
-        <v>872942</v>
+        <v>1090583</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4644,7 +4152,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4663,34 +4171,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I16" s="7">
-        <v>7860</v>
+        <v>15451</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="M16" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="N16" s="7">
-        <v>7860</v>
+        <v>15451</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,34 +4220,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>1545</v>
+        <v>5327</v>
       </c>
       <c r="I17" s="7">
-        <v>1137610</v>
+        <v>3639294</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="M17" s="7">
-        <v>1545</v>
+        <v>5327</v>
       </c>
       <c r="N17" s="7">
-        <v>1137610</v>
+        <v>3639294</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,10 +4269,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>1557</v>
+        <v>5354</v>
       </c>
       <c r="I18" s="7">
-        <v>1145470</v>
+        <v>3654745</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4776,10 +4284,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>1557</v>
+        <v>5354</v>
       </c>
       <c r="N18" s="7">
-        <v>1145470</v>
+        <v>3654745</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4792,165 +4300,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>27</v>
-      </c>
-      <c r="I19" s="7">
-        <v>16989</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M19" s="7">
-        <v>27</v>
-      </c>
-      <c r="N19" s="7">
-        <v>16989</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5327</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3782733</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5327</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3782733</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5354</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3799722</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5354</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3799722</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>52</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
